--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-01).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-01).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 결과서" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="테스트 케이스별 결과 화면" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박중근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,10 +222,6 @@
   </si>
   <si>
     <t>2. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UT-IDX_MNG_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지수정보 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지수 신규 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,6 +296,18 @@
   </si>
   <si>
     <t>IDX-REG-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 페이지는 지수사업자만 등록할수 있게 한다.
+1. 주요점검 항목
+  - 지수가 정상적으로 생성되는지 확인한다.
+  - 중복체크가 정상적으로 되는지 확인한다.
+  - 저장시 지수ID 가 등록되어 있는지 확인한다.
+  - 필수입력을 체크한다.
+  - validation 을 체크한다.
+2. 테스트전 사전 준비 사항(선행 및 데이터)
+  - 지수 사업자로 로그인 한다. (test@fnguide.com)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,6 +611,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1086,26 +1090,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-    <col min="3" max="3" width="35.8984375" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" customWidth="1"/>
-    <col min="5" max="5" width="30.3984375" customWidth="1"/>
-    <col min="6" max="6" width="23.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1117,113 +1121,113 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
+      <c r="B3" s="27"/>
+      <c r="C3" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
+      <c r="E4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="166.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="27"/>
+      <c r="C7" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1235,41 +1239,41 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1279,47 +1283,47 @@
       <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1327,21 +1331,21 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="66" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1349,19 +1353,19 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1369,7 +1373,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1381,7 +1385,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1393,7 +1397,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1405,7 +1409,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1417,7 +1421,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1429,7 +1433,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1441,7 +1445,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1453,7 +1457,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1465,7 +1469,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1477,7 +1481,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1489,7 +1493,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1501,7 +1505,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1513,7 +1517,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1525,7 +1529,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1537,7 +1541,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1549,7 +1553,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1561,7 +1565,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1609,26 +1613,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-    <col min="3" max="3" width="35.8984375" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" customWidth="1"/>
-    <col min="5" max="5" width="30.3984375" customWidth="1"/>
-    <col min="6" max="6" width="23.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1640,286 +1644,286 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
+      <c r="B3" s="27"/>
+      <c r="C3" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
+      <c r="E4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="21"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="21"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="21"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="21"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="21"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="21"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="21"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="21"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="21"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="21"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="21"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
@@ -1957,6 +1961,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1965,30 +1970,30 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J33"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-    <col min="3" max="3" width="35.8984375" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" customWidth="1"/>
-    <col min="5" max="5" width="30.3984375" customWidth="1"/>
-    <col min="6" max="6" width="23.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2000,411 +2005,411 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
+      <c r="E3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="20" t="s">
+      <c r="E4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="47"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="40"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2416,7 +2421,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2428,7 +2433,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="13"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2440,7 +2445,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2452,7 +2457,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2464,7 +2469,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2476,7 +2481,7 @@
       <c r="I41" s="12"/>
       <c r="J41" s="13"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2488,7 +2493,7 @@
       <c r="I42" s="12"/>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2500,7 +2505,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2512,7 +2517,7 @@
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -2524,7 +2529,7 @@
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2536,7 +2541,7 @@
       <c r="I46" s="12"/>
       <c r="J46" s="13"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2548,7 +2553,7 @@
       <c r="I47" s="12"/>
       <c r="J47" s="13"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2560,7 +2565,7 @@
       <c r="I48" s="12"/>
       <c r="J48" s="13"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -2572,7 +2577,7 @@
       <c r="I49" s="12"/>
       <c r="J49" s="13"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -2584,7 +2589,7 @@
       <c r="I50" s="12"/>
       <c r="J50" s="13"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -2596,7 +2601,7 @@
       <c r="I51" s="12"/>
       <c r="J51" s="13"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -2608,7 +2613,7 @@
       <c r="I52" s="12"/>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -2620,7 +2625,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="13"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2632,7 +2637,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="13"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2644,7 +2649,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="13"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2656,7 +2661,7 @@
       <c r="I56" s="12"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -2668,7 +2673,7 @@
       <c r="I57" s="12"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-01).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-01).xlsx
@@ -17,7 +17,6 @@
     <sheet name="테스트 케이스별 결과 화면" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,40 +221,6 @@
   </si>
   <si>
     <t>2. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수코드, 마켓아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수코드에 해당하는 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 지수명, 지수코드, 지수 설명이 정상적으로 디스플레이 되는지 확인
-2. 지수 현재가, 대비, 등락률, 최근업데이트 시간
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 차트: 지수와 연동된 ETP 시세를 같이 보여준다. 
-2. 마우스X축위에 따라 해당 위치의 시세를 보여준다.
-3. 기간을 선택하여 볼수 있다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">지수 시세와 ETP 시세에 맞게 차트가 출력 된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 지수의 고유정보를 확인 한다. 
-     -일부정보는 조회권한을 획득한 기관에만 공개한다. (기준시간 총액, 비교시가 총액, 고정현금, 유동 비율 적용 여부) 
-2. 지수를 트래킹하는 etp 목록을 보여준다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">지수를 추종하는 ETP 목록과 지수 정보를 출력한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -299,15 +264,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[지수 ID] test002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"[지수 ID] 이미 존재합니다." 
+메시지가 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"[지수 ID] 이미 존재합니다." 
+메시지가 출력됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 중복체크가 정상적으로 동작되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>해당 페이지는 지수사업자만 등록할수 있게 한다.
 1. 주요점검 항목
-  - 지수가 정상적으로 생성되는지 확인한다.
   - 중복체크가 정상적으로 되는지 확인한다.
-  - 저장시 지수ID 가 등록되어 있는지 확인한다.
   - 필수입력을 체크한다.
   - validation 을 체크한다.
 2. 테스트전 사전 준비 사항(선행 및 데이터)
   - 지수 사업자로 로그인 한다. (test@fnguide.com)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기본정보(필수입력) 저장없이 등록이 되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[지수 ID]
+[지수한글명]
+[지수개요]
+[기준지수]
+[기준일]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[지수 ID] is required 라는 메시지가 노출되고 저장되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[지수 ID] is required 라는 메시지가 노출되고 저장되지 않음을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">validation 을 체크한다.
+1. [지수한글명] 50자이상 등록되는지 확인한다.
+2. [지수 개요] 2000 자 이상 입력되는지 확인한다.
+3. [기준지수] 한글이 저장되는지 확인한다.
+4. [기준지수] 소수점 입력시 3자리까지 입력하도록 하는지 확인한다.
+5. [기준일] 날짜형식이 아닌 경우 입력되는지 확인한다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[지수한글명] 50자 이상입력
+[지수개요] 2000자 이상 입력
+[기준지수] 소스점 4자 이상  입력
+[기준일] 영문자, 한글, 13월, 32일 등 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[지수 한글명] 50자 까지만 입력가능합니다.
+[지수 개요] 2000자 까지만 입력가능합니다.
+[기준지수] 숫자형만 입력가능합니다.(소수점 3자리까지만)
+[기준일] is required
+메시지가 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[지수 한글명] 50자 까지만 입력가능합니다.
+[지수 개요] 2000자 까지만 입력가능합니다.
+[기준지수] 숫자형만 입력가능합니다.(소수점 3자리까지만)
+[기준일] is required
+메시지가 노출됨을 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,15 +649,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -632,27 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1090,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1106,10 +1140,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1122,110 +1156,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="26" t="s">
+      <c r="E4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26" t="s">
+      <c r="E5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" ht="166.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1240,40 +1274,40 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1283,9 +1317,9 @@
       <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -1293,15 +1327,17 @@
         <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
@@ -1317,21 +1353,25 @@
         <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="108" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -1339,16 +1379,20 @@
         <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1358,14 +1402,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1579,6 +1623,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1589,19 +1646,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1629,10 +1673,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1645,110 +1689,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="26" t="s">
+      <c r="E4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26" t="s">
+      <c r="E5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1776,159 +1820,172 @@
         <v>30</v>
       </c>
       <c r="B10" s="34"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1945,19 +2002,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2006,58 +2050,58 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="22"/>
+      <c r="E4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
@@ -2384,18 +2428,18 @@
       <c r="J33" s="47"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41"/>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-01).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-01).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 결과서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>indexSummary.js, indexSummary.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,34 +210,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>1. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 지수 분류 코드에 해당하는 요약 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부기능점검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 목록으로 돌아가기 클릭시 관리지수 목록으로 이동한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IDX_MNG_02 화면으로 이동한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당페이지는 모든 참여자가 검색을 통해 접근할 수 있다. 다만 일부 값에 대해서는 지수 사업자만 확인 가능 하다. 
-1. 주요점검 항목
-  - 지수 코드에대한 정보가 정상 출력 되는지 확인 한다. 
-2. 테스트전 사전 준비 사항(선행 및 데이터)
-  - 지수 사업자로 로그인 한다. (test@fnguide.com)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지수 신규 등록</t>
@@ -275,10 +243,6 @@
   <si>
     <t>"[지수 ID] 이미 존재합니다." 
 메시지가 출력됨을 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 중복체크가 정상적으로 동작되는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,27 +276,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">validation 을 체크한다.
-1. [지수한글명] 50자이상 등록되는지 확인한다.
-2. [지수 개요] 2000 자 이상 입력되는지 확인한다.
-3. [기준지수] 한글이 저장되는지 확인한다.
-4. [기준지수] 소수점 입력시 3자리까지 입력하도록 하는지 확인한다.
-5. [기준일] 날짜형식이 아닌 경우 입력되는지 확인한다.
+    <t>user/index/indexRegister.js
+user/index/indexRegister.xml
+Home/index/Register/registration.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 중복체크가 정상적으로 동작되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 기본정보(필수입력) 저장없이 등록이 되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 중복체크가 정상적으로 동작되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. validation 을 체크한다.
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 기본정보(필수) 를 모두 입력 후 지수 방법론만 업로드 후 저장되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 저장된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 저장됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. validation 을 체크한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 기본정보(필수) 를 모두 입력 후 지수 방법론만 업로드 후 저장되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[지수한글명] 50자 이상입력
-[지수개요] 2000자 이상 입력
-[기준지수] 소스점 4자 이상  입력
-[기준일] 영문자, 한글, 13월, 32일 등 입력</t>
+[지수개요] 2000자 이상 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[지수 한글명] 50자 까지만 입력가능합니다.
 [지수 개요] 2000자 까지만 입력가능합니다.
 [기준지수] 숫자형만 입력가능합니다.(소수점 3자리까지만)
-[기준일] is required
 메시지가 노출된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,8 +334,23 @@
     <t>[지수 한글명] 50자 까지만 입력가능합니다.
 [지수 개요] 2000자 까지만 입력가능합니다.
 [기준지수] 숫자형만 입력가능합니다.(소수점 3자리까지만)
-[기준일] is required
 메시지가 노출됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기본정보(필수) 를 모두 입력 후 소급지수만 업로드 후 저장되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 기본정보(필수) 를 모두 입력 후 소급지수만 업로드 후 저장되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 기본정보(필수) 를 모두 입력 후 소급지수와 지수방법론 모두 업로드 저장되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 기본정보(필수) 를 모두 입력 후 소급지수와 지수방법론 모두 업로드 저장되는지 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,54 +649,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,11 +733,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,20 +794,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>184457</xdr:rowOff>
+      <xdr:colOff>1246480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -808,50 +820,232 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="1714500"/>
-          <a:ext cx="7905750" cy="4966007"/>
+          <a:off x="0" y="1466850"/>
+          <a:ext cx="10361905" cy="4866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>5118407</xdr:rowOff>
+      <xdr:colOff>1198861</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4847619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="7486650"/>
-          <a:ext cx="7905750" cy="4966007"/>
+          <a:off x="0" y="6705600"/>
+          <a:ext cx="10314286" cy="4847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5053436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17526000"/>
+          <a:ext cx="7810500" cy="5053436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1303623</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4838095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12115800"/>
+          <a:ext cx="10419048" cy="4838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1306554</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4953000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22936200"/>
+          <a:ext cx="6069054" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>302608</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>5057775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28346400"/>
+          <a:ext cx="7103458" cy="5057775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1122,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,10 +1334,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1156,110 +1350,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="19" t="s">
-        <v>56</v>
+      <c r="B3" s="26"/>
+      <c r="C3" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="20" t="s">
+      <c r="E4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="20" t="s">
+      <c r="E5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" ht="166.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1274,40 +1468,40 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="26" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1317,29 +1511,29 @@
       <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1350,93 +1544,121 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="108" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="96" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="46">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="B14" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="47"/>
       <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+    <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1621,21 +1843,20 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1646,6 +1867,19 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1658,7 +1892,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:H10"/>
+      <selection activeCell="C6" sqref="C6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1673,10 +1907,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -1689,303 +1923,290 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="20" t="s">
+      <c r="E4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="20" t="s">
+      <c r="E5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -2002,6 +2223,19 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2011,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2030,14 +2264,14 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2050,468 +2284,476 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="E3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="E4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
+      <c r="A6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="45"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
+      <c r="A31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
+      <c r="A33" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
+      <c r="A37" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="A39" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
@@ -2682,61 +2924,33 @@
       <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="17">
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A7:J33"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A7:J30"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:J4"/>

--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-01).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-01).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 결과서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -351,6 +347,10 @@
   </si>
   <si>
     <t>6. 기본정보(필수) 를 모두 입력 후 소급지수와 지수방법론 모두 업로드 저장되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,9 +607,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -655,15 +652,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,27 +703,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,35 +724,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1334,10 +1334,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1345,115 +1345,115 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="48">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="48">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="I5" s="23"/>
+      <c r="J5" s="48">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1486,11 +1486,11 @@
       <c r="F9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="26"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="27" t="s">
         <v>10</v>
       </c>
@@ -1502,361 +1502,398 @@
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="96" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
-        <v>4</v>
-      </c>
-      <c r="B14" s="47" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1867,19 +1904,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1892,7 +1916,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1907,306 +1931,363 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="48">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="48">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="I5" s="23"/>
+      <c r="J5" s="48">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -2223,19 +2304,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -2263,15 +2331,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>45</v>
+      <c r="A1" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2279,672 +2347,664 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="21"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
+      <c r="A6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="21"/>
+      <c r="A31" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="44"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="21"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="21"/>
+      <c r="A37" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="21"/>
+      <c r="A39" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A32:J32"/>
@@ -2954,6 +3014,14 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
